--- a/DM-CPE1A-19-20-ATTENDANCE 101.xlsx
+++ b/DM-CPE1A-19-20-ATTENDANCE 101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\MONITORING-CPE1A-19-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A1A8EA-8E9B-47B3-B857-ADC86BD407CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AA0551-B611-49D0-8E15-48BDB4911E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -32681,10 +32681,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32696,11 +32696,11 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1">
+    <row r="1" spans="1:21" ht="60" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
@@ -32720,7 +32720,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16" ht="58.5" customHeight="1">
+    <row r="2" spans="1:21" ht="58.5" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>48</v>
       </c>
@@ -32740,7 +32740,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>49</v>
       </c>
@@ -32760,10 +32760,10 @@
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
     </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:21" ht="23.25" customHeight="1" thickBot="1">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="17.25" thickBot="1">
+    <row r="6" spans="1:21" ht="17.25" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -32803,8 +32803,8 @@
       <c r="M6" s="4">
         <v>43885</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>3</v>
+      <c r="N6" s="4">
+        <v>43889</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>3</v>
@@ -32812,8 +32812,14 @@
       <c r="P6" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="Q6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -32851,8 +32857,8 @@
       <c r="M7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>3</v>
+      <c r="N7" s="5">
+        <v>1</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>3</v>
@@ -32860,8 +32866,23 @@
       <c r="P7" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -32901,8 +32922,8 @@
       <c r="M8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>3</v>
+      <c r="N8" s="5">
+        <v>1</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>3</v>
@@ -32910,8 +32931,23 @@
       <c r="P8" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -32949,8 +32985,8 @@
         <v>0</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>3</v>
+      <c r="N9" s="5">
+        <v>0</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>3</v>
@@ -32958,8 +32994,23 @@
       <c r="P9" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -32999,8 +33050,8 @@
       <c r="M10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>3</v>
+      <c r="N10" s="5">
+        <v>1</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>3</v>
@@ -33008,8 +33059,23 @@
       <c r="P10" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -33049,8 +33115,8 @@
       <c r="M11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>3</v>
+      <c r="N11" s="5">
+        <v>1</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>3</v>
@@ -33058,8 +33124,23 @@
       <c r="P11" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -33099,8 +33180,8 @@
       <c r="M12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>3</v>
+      <c r="N12" s="5">
+        <v>1</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>3</v>
@@ -33108,8 +33189,23 @@
       <c r="P12" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -33149,8 +33245,8 @@
       <c r="M13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>3</v>
+      <c r="N13" s="5">
+        <v>0</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>3</v>
@@ -33158,8 +33254,23 @@
       <c r="P13" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -33199,8 +33310,8 @@
       <c r="M14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>3</v>
+      <c r="N14" s="5">
+        <v>1</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>3</v>
@@ -33208,8 +33319,23 @@
       <c r="P14" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -33247,8 +33373,8 @@
       <c r="M15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>3</v>
+      <c r="N15" s="5">
+        <v>0</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>3</v>
@@ -33256,8 +33382,23 @@
       <c r="P15" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -33297,8 +33438,8 @@
       <c r="M16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>3</v>
+      <c r="N16" s="5">
+        <v>0</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>3</v>
@@ -33306,8 +33447,23 @@
       <c r="P16" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -33345,8 +33501,8 @@
       <c r="M17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>3</v>
+      <c r="N17" s="5">
+        <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>3</v>
@@ -33354,8 +33510,23 @@
       <c r="P17" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -33395,8 +33566,8 @@
       <c r="M18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="5" t="s">
-        <v>3</v>
+      <c r="N18" s="5">
+        <v>1</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>3</v>
@@ -33404,8 +33575,23 @@
       <c r="P18" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" ht="17.25" thickBot="1">
+    <row r="19" spans="1:21" ht="17.25" thickBot="1">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -33445,8 +33631,8 @@
       <c r="M19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>3</v>
+      <c r="N19" s="5">
+        <v>1</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>3</v>
@@ -33454,8 +33640,23 @@
       <c r="P19" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -33495,8 +33696,8 @@
       <c r="M20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="5" t="s">
-        <v>3</v>
+      <c r="N20" s="5">
+        <v>1</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>3</v>
@@ -33504,8 +33705,23 @@
       <c r="P20" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -33545,8 +33761,8 @@
       <c r="M21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>3</v>
+      <c r="N21" s="5">
+        <v>1</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>3</v>
@@ -33554,8 +33770,13 @@
       <c r="P21" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -33595,8 +33816,8 @@
       <c r="M22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>3</v>
+      <c r="N22" s="5">
+        <v>1</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>3</v>
@@ -33604,8 +33825,13 @@
       <c r="P22" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -33643,8 +33869,8 @@
       <c r="M23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>3</v>
+      <c r="N23" s="5">
+        <v>1</v>
       </c>
       <c r="O23" s="5" t="s">
         <v>3</v>
@@ -33652,8 +33878,23 @@
       <c r="P23" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -33693,8 +33934,8 @@
       <c r="M24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>3</v>
+      <c r="N24" s="5">
+        <v>1</v>
       </c>
       <c r="O24" s="5" t="s">
         <v>3</v>
@@ -33702,8 +33943,23 @@
       <c r="P24" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -33743,8 +33999,8 @@
       <c r="M25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>3</v>
+      <c r="N25" s="5">
+        <v>1</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>3</v>
@@ -33752,8 +34008,23 @@
       <c r="P25" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -33793,8 +34064,8 @@
       <c r="M26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>3</v>
+      <c r="N26" s="5">
+        <v>1</v>
       </c>
       <c r="O26" s="5" t="s">
         <v>3</v>
@@ -33802,8 +34073,23 @@
       <c r="P26" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -33843,8 +34129,8 @@
       <c r="M27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>3</v>
+      <c r="N27" s="5">
+        <v>1</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>3</v>
@@ -33852,8 +34138,23 @@
       <c r="P27" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -33893,8 +34194,8 @@
       <c r="M28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>3</v>
+      <c r="N28" s="5">
+        <v>1</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>3</v>
@@ -33902,8 +34203,23 @@
       <c r="P28" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -33943,8 +34259,8 @@
       <c r="M29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>3</v>
+      <c r="N29" s="5">
+        <v>1</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>3</v>
@@ -33952,8 +34268,23 @@
       <c r="P29" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -33991,8 +34322,8 @@
       <c r="M30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N30" s="5" t="s">
-        <v>3</v>
+      <c r="N30" s="5">
+        <v>1</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>3</v>
@@ -34000,8 +34331,23 @@
       <c r="P30" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -34041,8 +34387,8 @@
       <c r="M31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N31" s="5" t="s">
-        <v>3</v>
+      <c r="N31" s="5">
+        <v>1</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>3</v>
@@ -34050,8 +34396,23 @@
       <c r="P31" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -34091,8 +34452,8 @@
       <c r="M32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="5" t="s">
-        <v>3</v>
+      <c r="N32" s="5">
+        <v>1</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>3</v>
@@ -34100,8 +34461,23 @@
       <c r="P32" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="6">
         <v>27</v>
       </c>
@@ -34141,8 +34517,8 @@
       <c r="M33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N33" s="5" t="s">
-        <v>3</v>
+      <c r="N33" s="5">
+        <v>1</v>
       </c>
       <c r="O33" s="5" t="s">
         <v>3</v>
@@ -34150,8 +34526,23 @@
       <c r="P33" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -34191,8 +34582,8 @@
       <c r="M34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N34" s="5" t="s">
-        <v>3</v>
+      <c r="N34" s="5">
+        <v>1</v>
       </c>
       <c r="O34" s="5" t="s">
         <v>3</v>
@@ -34200,8 +34591,23 @@
       <c r="P34" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" ht="17.25" thickBot="1">
+    <row r="35" spans="1:21" ht="17.25" thickBot="1">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -34241,8 +34647,8 @@
       <c r="M35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="5" t="s">
-        <v>3</v>
+      <c r="N35" s="5">
+        <v>1</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>3</v>
@@ -34250,8 +34656,23 @@
       <c r="P35" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="36" spans="1:16" ht="17.25" thickBot="1">
+    <row r="36" spans="1:21" ht="17.25" thickBot="1">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -34291,8 +34712,8 @@
       <c r="M36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N36" s="5" t="s">
-        <v>3</v>
+      <c r="N36" s="5">
+        <v>0</v>
       </c>
       <c r="O36" s="5" t="s">
         <v>3</v>
@@ -34300,8 +34721,23 @@
       <c r="P36" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="1:16" ht="17.25" thickBot="1">
+    <row r="37" spans="1:21" ht="17.25" thickBot="1">
       <c r="A37" s="6">
         <v>31</v>
       </c>
@@ -34341,8 +34777,8 @@
       <c r="M37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="5" t="s">
-        <v>3</v>
+      <c r="N37" s="5">
+        <v>1</v>
       </c>
       <c r="O37" s="5" t="s">
         <v>3</v>
@@ -34350,8 +34786,23 @@
       <c r="P37" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" ht="17.25" thickBot="1">
+    <row r="38" spans="1:21" ht="17.25" thickBot="1">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -34391,8 +34842,8 @@
       <c r="M38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N38" s="5" t="s">
-        <v>3</v>
+      <c r="N38" s="5">
+        <v>1</v>
       </c>
       <c r="O38" s="5" t="s">
         <v>3</v>
@@ -34400,8 +34851,23 @@
       <c r="P38" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
+    <row r="39" spans="1:21" ht="16.5" customHeight="1" thickBot="1">
       <c r="A39" s="6">
         <v>33</v>
       </c>
@@ -34441,8 +34907,8 @@
       <c r="M39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N39" s="5" t="s">
-        <v>3</v>
+      <c r="N39" s="5">
+        <v>1</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>3</v>
@@ -34450,8 +34916,23 @@
       <c r="P39" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="40" spans="1:16" ht="17.25" thickBot="1">
+    <row r="40" spans="1:21" ht="17.25" thickBot="1">
       <c r="A40" s="6">
         <v>34</v>
       </c>
@@ -34491,8 +34972,8 @@
       <c r="M40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N40" s="5" t="s">
-        <v>3</v>
+      <c r="N40" s="5">
+        <v>1</v>
       </c>
       <c r="O40" s="5" t="s">
         <v>3</v>
@@ -34500,8 +34981,23 @@
       <c r="P40" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="41" spans="1:16" ht="17.25" thickBot="1">
+    <row r="41" spans="1:21" ht="17.25" thickBot="1">
       <c r="A41" s="6">
         <v>35</v>
       </c>
@@ -34541,8 +35037,8 @@
       <c r="M41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="5" t="s">
-        <v>3</v>
+      <c r="N41" s="5">
+        <v>1</v>
       </c>
       <c r="O41" s="5" t="s">
         <v>3</v>
@@ -34550,8 +35046,23 @@
       <c r="P41" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="42" spans="1:16" ht="17.25" thickBot="1">
+    <row r="42" spans="1:21" ht="17.25" thickBot="1">
       <c r="A42" s="6">
         <v>36</v>
       </c>
@@ -34591,8 +35102,8 @@
       <c r="M42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="5" t="s">
-        <v>3</v>
+      <c r="N42" s="5">
+        <v>1</v>
       </c>
       <c r="O42" s="5" t="s">
         <v>3</v>
@@ -34600,8 +35111,23 @@
       <c r="P42" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:16" ht="17.25" thickBot="1">
+    <row r="43" spans="1:21" ht="17.25" thickBot="1">
       <c r="A43" s="6">
         <v>37</v>
       </c>
@@ -34641,8 +35167,8 @@
       <c r="M43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="5" t="s">
-        <v>3</v>
+      <c r="N43" s="5">
+        <v>1</v>
       </c>
       <c r="O43" s="5" t="s">
         <v>3</v>
@@ -34650,8 +35176,23 @@
       <c r="P43" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="44" spans="1:16" ht="17.25" thickBot="1">
+    <row r="44" spans="1:21" ht="17.25" thickBot="1">
       <c r="A44" s="6">
         <v>38</v>
       </c>
@@ -34691,8 +35232,8 @@
       <c r="M44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="5" t="s">
-        <v>3</v>
+      <c r="N44" s="5">
+        <v>1</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>3</v>
@@ -34700,8 +35241,23 @@
       <c r="P44" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="45" spans="1:16" ht="17.25" thickBot="1">
+    <row r="45" spans="1:21" ht="17.25" thickBot="1">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -34741,8 +35297,8 @@
       <c r="M45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="5" t="s">
-        <v>3</v>
+      <c r="N45" s="5">
+        <v>1</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>3</v>
@@ -34750,8 +35306,23 @@
       <c r="P45" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="46" spans="1:16" ht="17.25" thickBot="1">
+    <row r="46" spans="1:21" ht="17.25" thickBot="1">
       <c r="A46" s="6">
         <v>40</v>
       </c>
@@ -34791,8 +35362,8 @@
       <c r="M46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="5" t="s">
-        <v>3</v>
+      <c r="N46" s="5">
+        <v>1</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>3</v>
@@ -34800,8 +35371,23 @@
       <c r="P46" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="47" spans="1:16" ht="17.25" thickBot="1">
+    <row r="47" spans="1:21" ht="17.25" thickBot="1">
       <c r="A47" s="6">
         <v>41</v>
       </c>
@@ -34841,8 +35427,8 @@
       <c r="M47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="5" t="s">
-        <v>3</v>
+      <c r="N47" s="5">
+        <v>0</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>3</v>
@@ -34850,8 +35436,13 @@
       <c r="P47" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="1:16" ht="17.25" thickBot="1">
+    <row r="48" spans="1:21" ht="17.25" thickBot="1">
       <c r="A48" s="6">
         <v>42</v>
       </c>
@@ -34891,8 +35482,8 @@
       <c r="M48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="5" t="s">
-        <v>3</v>
+      <c r="N48" s="5">
+        <v>1</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>3</v>
@@ -34900,8 +35491,23 @@
       <c r="P48" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="49" spans="1:16" ht="17.25" thickBot="1">
+    <row r="49" spans="1:21" ht="17.25" thickBot="1">
       <c r="A49" s="6">
         <v>43</v>
       </c>
@@ -34941,8 +35547,8 @@
       <c r="M49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="5" t="s">
-        <v>3</v>
+      <c r="N49" s="5">
+        <v>1</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>3</v>
@@ -34950,8 +35556,23 @@
       <c r="P49" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="50" spans="1:16" ht="17.25" thickBot="1">
+    <row r="50" spans="1:21" ht="17.25" thickBot="1">
       <c r="A50" s="6">
         <v>44</v>
       </c>
@@ -34991,8 +35612,8 @@
       <c r="M50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N50" s="5" t="s">
-        <v>3</v>
+      <c r="N50" s="5">
+        <v>1</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>3</v>
@@ -35000,8 +35621,23 @@
       <c r="P50" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="51" spans="1:16" ht="17.25" thickBot="1">
+    <row r="51" spans="1:21" ht="17.25" thickBot="1">
       <c r="A51" s="6">
         <v>45</v>
       </c>
@@ -35041,8 +35677,8 @@
       <c r="M51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="5" t="s">
-        <v>3</v>
+      <c r="N51" s="5">
+        <v>1</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>3</v>
@@ -35050,8 +35686,23 @@
       <c r="P51" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="52" spans="1:16" ht="17.25" thickBot="1">
+    <row r="52" spans="1:21" ht="17.25" thickBot="1">
       <c r="A52" s="6">
         <v>46</v>
       </c>
@@ -35091,8 +35742,8 @@
       <c r="M52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="5" t="s">
-        <v>3</v>
+      <c r="N52" s="5">
+        <v>1</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>3</v>
@@ -35100,8 +35751,23 @@
       <c r="P52" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="53" spans="1:16" ht="17.25" thickBot="1">
+    <row r="53" spans="1:21" ht="17.25" thickBot="1">
       <c r="A53" s="6">
         <v>47</v>
       </c>
@@ -35141,8 +35807,8 @@
       <c r="M53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N53" s="5" t="s">
-        <v>3</v>
+      <c r="N53" s="5">
+        <v>1</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>3</v>
@@ -35150,8 +35816,23 @@
       <c r="P53" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="Q53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U53" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="54" spans="1:16" ht="17.25" thickBot="1">
+    <row r="54" spans="1:21" ht="17.25" thickBot="1">
       <c r="A54" s="6">
         <v>48</v>
       </c>
@@ -35191,13 +35872,28 @@
       <c r="M54" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="5" t="s">
-        <v>3</v>
+      <c r="N54" s="5">
+        <v>0</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>3</v>
       </c>
       <c r="P54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="5" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DM-CPE1A-19-20-ATTENDANCE 101.xlsx
+++ b/DM-CPE1A-19-20-ATTENDANCE 101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\MONITORING-CPE1A-19-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AA0551-B611-49D0-8E15-48BDB4911E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23B3B74-9B52-43D5-AF1A-7E9C18F5182E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -32683,8 +32683,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32806,8 +32806,8 @@
       <c r="N6" s="4">
         <v>43889</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>3</v>
+      <c r="O6" s="4">
+        <v>43893</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>3</v>
@@ -32816,6 +32816,15 @@
         <v>3</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -32860,8 +32869,8 @@
       <c r="N7" s="5">
         <v>1</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>3</v>
+      <c r="O7" s="5">
+        <v>1</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>3</v>
@@ -32925,8 +32934,8 @@
       <c r="N8" s="5">
         <v>1</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>3</v>
+      <c r="O8" s="5">
+        <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>3</v>
@@ -32988,8 +32997,8 @@
       <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>3</v>
+      <c r="O9" s="5">
+        <v>0</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>3</v>
@@ -33053,8 +33062,8 @@
       <c r="N10" s="5">
         <v>1</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>3</v>
+      <c r="O10" s="5">
+        <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>3</v>
@@ -33118,8 +33127,8 @@
       <c r="N11" s="5">
         <v>1</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>3</v>
+      <c r="O11" s="5">
+        <v>1</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>3</v>
@@ -33183,8 +33192,8 @@
       <c r="N12" s="5">
         <v>1</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>3</v>
+      <c r="O12" s="5">
+        <v>1</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>3</v>
@@ -33248,8 +33257,8 @@
       <c r="N13" s="5">
         <v>0</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>3</v>
+      <c r="O13" s="5">
+        <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>3</v>
@@ -33313,8 +33322,8 @@
       <c r="N14" s="5">
         <v>1</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>3</v>
+      <c r="O14" s="5">
+        <v>1</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>3</v>
@@ -33376,8 +33385,8 @@
       <c r="N15" s="5">
         <v>0</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>3</v>
+      <c r="O15" s="5">
+        <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>3</v>
@@ -33441,8 +33450,8 @@
       <c r="N16" s="5">
         <v>0</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>3</v>
+      <c r="O16" s="5">
+        <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>3</v>
@@ -33504,8 +33513,8 @@
       <c r="N17" s="5">
         <v>1</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>3</v>
+      <c r="O17" s="5">
+        <v>1</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>3</v>
@@ -33569,8 +33578,8 @@
       <c r="N18" s="5">
         <v>1</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>3</v>
+      <c r="O18" s="5">
+        <v>1</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>3</v>
@@ -33634,8 +33643,8 @@
       <c r="N19" s="5">
         <v>1</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>3</v>
+      <c r="O19" s="5">
+        <v>1</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>3</v>
@@ -33699,8 +33708,8 @@
       <c r="N20" s="5">
         <v>1</v>
       </c>
-      <c r="O20" s="5" t="s">
-        <v>3</v>
+      <c r="O20" s="5">
+        <v>1</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>3</v>
@@ -33764,8 +33773,8 @@
       <c r="N21" s="5">
         <v>1</v>
       </c>
-      <c r="O21" s="5" t="s">
-        <v>3</v>
+      <c r="O21" s="5">
+        <v>1</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>3</v>
@@ -33819,8 +33828,8 @@
       <c r="N22" s="5">
         <v>1</v>
       </c>
-      <c r="O22" s="5" t="s">
-        <v>3</v>
+      <c r="O22" s="5">
+        <v>1</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>3</v>
@@ -33872,8 +33881,8 @@
       <c r="N23" s="5">
         <v>1</v>
       </c>
-      <c r="O23" s="5" t="s">
-        <v>3</v>
+      <c r="O23" s="5">
+        <v>1</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>3</v>
@@ -33937,8 +33946,8 @@
       <c r="N24" s="5">
         <v>1</v>
       </c>
-      <c r="O24" s="5" t="s">
-        <v>3</v>
+      <c r="O24" s="5">
+        <v>1</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>3</v>
@@ -34002,8 +34011,8 @@
       <c r="N25" s="5">
         <v>1</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>3</v>
+      <c r="O25" s="5">
+        <v>1</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>3</v>
@@ -34067,8 +34076,8 @@
       <c r="N26" s="5">
         <v>1</v>
       </c>
-      <c r="O26" s="5" t="s">
-        <v>3</v>
+      <c r="O26" s="5">
+        <v>0</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>3</v>
@@ -34132,8 +34141,8 @@
       <c r="N27" s="5">
         <v>1</v>
       </c>
-      <c r="O27" s="5" t="s">
-        <v>3</v>
+      <c r="O27" s="5">
+        <v>0</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>3</v>
@@ -34197,8 +34206,8 @@
       <c r="N28" s="5">
         <v>1</v>
       </c>
-      <c r="O28" s="5" t="s">
-        <v>3</v>
+      <c r="O28" s="5">
+        <v>0</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>3</v>
@@ -34262,8 +34271,8 @@
       <c r="N29" s="5">
         <v>1</v>
       </c>
-      <c r="O29" s="5" t="s">
-        <v>3</v>
+      <c r="O29" s="5">
+        <v>1</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>3</v>
@@ -34325,8 +34334,8 @@
       <c r="N30" s="5">
         <v>1</v>
       </c>
-      <c r="O30" s="5" t="s">
-        <v>3</v>
+      <c r="O30" s="5">
+        <v>1</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>3</v>
@@ -34390,8 +34399,8 @@
       <c r="N31" s="5">
         <v>1</v>
       </c>
-      <c r="O31" s="5" t="s">
-        <v>3</v>
+      <c r="O31" s="5">
+        <v>0</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>3</v>
@@ -34455,8 +34464,8 @@
       <c r="N32" s="5">
         <v>1</v>
       </c>
-      <c r="O32" s="5" t="s">
-        <v>3</v>
+      <c r="O32" s="5">
+        <v>1</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>3</v>
@@ -34520,8 +34529,8 @@
       <c r="N33" s="5">
         <v>1</v>
       </c>
-      <c r="O33" s="5" t="s">
-        <v>3</v>
+      <c r="O33" s="5">
+        <v>0</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>3</v>
@@ -34585,8 +34594,8 @@
       <c r="N34" s="5">
         <v>1</v>
       </c>
-      <c r="O34" s="5" t="s">
-        <v>3</v>
+      <c r="O34" s="5">
+        <v>0</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>3</v>
@@ -34650,8 +34659,8 @@
       <c r="N35" s="5">
         <v>1</v>
       </c>
-      <c r="O35" s="5" t="s">
-        <v>3</v>
+      <c r="O35" s="5">
+        <v>1</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>3</v>
@@ -34715,8 +34724,8 @@
       <c r="N36" s="5">
         <v>0</v>
       </c>
-      <c r="O36" s="5" t="s">
-        <v>3</v>
+      <c r="O36" s="5">
+        <v>1</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>3</v>
@@ -34780,8 +34789,8 @@
       <c r="N37" s="5">
         <v>1</v>
       </c>
-      <c r="O37" s="5" t="s">
-        <v>3</v>
+      <c r="O37" s="5">
+        <v>1</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>3</v>
@@ -34845,8 +34854,8 @@
       <c r="N38" s="5">
         <v>1</v>
       </c>
-      <c r="O38" s="5" t="s">
-        <v>3</v>
+      <c r="O38" s="5">
+        <v>0</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>3</v>
@@ -34910,8 +34919,8 @@
       <c r="N39" s="5">
         <v>1</v>
       </c>
-      <c r="O39" s="5" t="s">
-        <v>3</v>
+      <c r="O39" s="5">
+        <v>0</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>3</v>
@@ -34975,8 +34984,8 @@
       <c r="N40" s="5">
         <v>1</v>
       </c>
-      <c r="O40" s="5" t="s">
-        <v>3</v>
+      <c r="O40" s="5">
+        <v>0</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>3</v>
@@ -35040,8 +35049,8 @@
       <c r="N41" s="5">
         <v>1</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>3</v>
+      <c r="O41" s="5">
+        <v>1</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>3</v>
@@ -35105,8 +35114,8 @@
       <c r="N42" s="5">
         <v>1</v>
       </c>
-      <c r="O42" s="5" t="s">
-        <v>3</v>
+      <c r="O42" s="5">
+        <v>1</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>3</v>
@@ -35170,8 +35179,8 @@
       <c r="N43" s="5">
         <v>1</v>
       </c>
-      <c r="O43" s="5" t="s">
-        <v>3</v>
+      <c r="O43" s="5">
+        <v>1</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>3</v>
@@ -35235,8 +35244,8 @@
       <c r="N44" s="5">
         <v>1</v>
       </c>
-      <c r="O44" s="5" t="s">
-        <v>3</v>
+      <c r="O44" s="5">
+        <v>0</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>3</v>
@@ -35300,8 +35309,8 @@
       <c r="N45" s="5">
         <v>1</v>
       </c>
-      <c r="O45" s="5" t="s">
-        <v>3</v>
+      <c r="O45" s="5">
+        <v>0</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>3</v>
@@ -35365,8 +35374,8 @@
       <c r="N46" s="5">
         <v>1</v>
       </c>
-      <c r="O46" s="5" t="s">
-        <v>3</v>
+      <c r="O46" s="5">
+        <v>1</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>3</v>
@@ -35430,8 +35439,8 @@
       <c r="N47" s="5">
         <v>0</v>
       </c>
-      <c r="O47" s="5" t="s">
-        <v>3</v>
+      <c r="O47" s="5">
+        <v>0</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>3</v>
@@ -35485,8 +35494,8 @@
       <c r="N48" s="5">
         <v>1</v>
       </c>
-      <c r="O48" s="5" t="s">
-        <v>3</v>
+      <c r="O48" s="5">
+        <v>1</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>3</v>
@@ -35550,8 +35559,8 @@
       <c r="N49" s="5">
         <v>1</v>
       </c>
-      <c r="O49" s="5" t="s">
-        <v>3</v>
+      <c r="O49" s="5">
+        <v>1</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>3</v>
@@ -35615,8 +35624,8 @@
       <c r="N50" s="5">
         <v>1</v>
       </c>
-      <c r="O50" s="5" t="s">
-        <v>3</v>
+      <c r="O50" s="5">
+        <v>0</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>3</v>
@@ -35680,8 +35689,8 @@
       <c r="N51" s="5">
         <v>1</v>
       </c>
-      <c r="O51" s="5" t="s">
-        <v>3</v>
+      <c r="O51" s="5">
+        <v>0</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>3</v>
@@ -35745,8 +35754,8 @@
       <c r="N52" s="5">
         <v>1</v>
       </c>
-      <c r="O52" s="5" t="s">
-        <v>3</v>
+      <c r="O52" s="5">
+        <v>1</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>3</v>
@@ -35810,8 +35819,8 @@
       <c r="N53" s="5">
         <v>1</v>
       </c>
-      <c r="O53" s="5" t="s">
-        <v>3</v>
+      <c r="O53" s="5">
+        <v>0</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>3</v>
@@ -35875,8 +35884,8 @@
       <c r="N54" s="5">
         <v>0</v>
       </c>
-      <c r="O54" s="5" t="s">
-        <v>3</v>
+      <c r="O54" s="5">
+        <v>0</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>3</v>

--- a/DM-CPE1A-19-20-ATTENDANCE 101.xlsx
+++ b/DM-CPE1A-19-20-ATTENDANCE 101.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\MONITORING-CPE1A-19-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23B3B74-9B52-43D5-AF1A-7E9C18F5182E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCBC5AE-D89B-4C3B-AC27-0A4645E09F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -222,6 +222,18 @@
   <si>
     <t>S</t>
   </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ABSENCES</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +287,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEBCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,6 +438,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -32683,8 +32713,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32697,68 +32727,71 @@
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="60" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:21" ht="58.5" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="5" spans="1:21" ht="23.25" customHeight="1" thickBot="1">
       <c r="F5" s="2"/>
@@ -32807,24 +32840,24 @@
         <v>43889</v>
       </c>
       <c r="O6" s="4">
-        <v>43893</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U6" s="4" t="s">
+        <v>43892</v>
+      </c>
+      <c r="P6" s="4">
+        <v>43896</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>43899</v>
+      </c>
+      <c r="R6" s="4">
+        <v>43903</v>
+      </c>
+      <c r="S6" s="4">
+        <v>43906</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -32872,8 +32905,8 @@
       <c r="O7" s="5">
         <v>1</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>3</v>
+      <c r="P7" s="5">
+        <v>1</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>3</v>
@@ -32884,10 +32917,10 @@
       <c r="S7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -32937,22 +32970,22 @@
       <c r="O8" s="5">
         <v>0</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>3</v>
+      <c r="P8" s="5">
+        <v>1</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="20">
+        <v>5</v>
+      </c>
+      <c r="U8" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33000,22 +33033,20 @@
       <c r="O9" s="5">
         <v>0</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5"/>
       <c r="R9" s="5" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="20">
+        <v>9</v>
+      </c>
+      <c r="U9" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33065,22 +33096,22 @@
       <c r="O10" s="5">
         <v>0</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>3</v>
+      <c r="P10" s="5">
+        <v>1</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="20">
+        <v>2</v>
+      </c>
+      <c r="U10" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33130,22 +33161,22 @@
       <c r="O11" s="5">
         <v>1</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>3</v>
+      <c r="P11" s="5">
+        <v>1</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="R11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33195,22 +33226,22 @@
       <c r="O12" s="5">
         <v>1</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>3</v>
+      <c r="P12" s="5">
+        <v>1</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33260,22 +33291,22 @@
       <c r="O13" s="5">
         <v>0</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>3</v>
+      <c r="P13" s="5">
+        <v>1</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" s="20">
+        <v>8</v>
+      </c>
+      <c r="U13" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33325,8 +33356,8 @@
       <c r="O14" s="5">
         <v>1</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>3</v>
+      <c r="P14" s="5">
+        <v>1</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>3</v>
@@ -33335,12 +33366,12 @@
         <v>3</v>
       </c>
       <c r="S14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="T14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33388,8 +33419,8 @@
       <c r="O15" s="5">
         <v>0</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>3</v>
+      <c r="P15" s="5">
+        <v>0</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>3</v>
@@ -33398,12 +33429,12 @@
         <v>3</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" s="20">
+        <v>7</v>
+      </c>
+      <c r="U15" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33453,22 +33484,20 @@
       <c r="O16" s="5">
         <v>0</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5"/>
       <c r="R16" s="5" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T16" s="20">
+        <v>2</v>
+      </c>
+      <c r="U16" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33516,22 +33545,22 @@
       <c r="O17" s="5">
         <v>1</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>3</v>
+      <c r="P17" s="5">
+        <v>1</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="20">
+        <v>4</v>
+      </c>
+      <c r="U17" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33581,22 +33610,22 @@
       <c r="O18" s="5">
         <v>1</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>3</v>
+      <c r="P18" s="5">
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33646,22 +33675,20 @@
       <c r="O19" s="5">
         <v>1</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5"/>
       <c r="R19" s="5" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="S19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" s="20">
         <v>3</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33711,22 +33738,20 @@
       <c r="O20" s="5">
         <v>1</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>3</v>
+      <c r="P20" s="5">
+        <v>1</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="R20" s="5"/>
       <c r="S20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="5" t="s">
+      <c r="T20" s="20">
+        <v>2</v>
+      </c>
+      <c r="U20" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33776,14 +33801,14 @@
       <c r="O21" s="5">
         <v>1</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>3</v>
+      <c r="P21" s="5">
+        <v>1</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="22"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="6">
@@ -33831,14 +33856,14 @@
       <c r="O22" s="5">
         <v>1</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>3</v>
+      <c r="P22" s="5">
+        <v>1</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="22"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="6">
@@ -33884,11 +33909,11 @@
       <c r="O23" s="5">
         <v>1</v>
       </c>
-      <c r="P23" s="5" t="s">
-        <v>3</v>
+      <c r="P23" s="5">
+        <v>1</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>3</v>
@@ -33896,10 +33921,10 @@
       <c r="S23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="5" t="s">
+      <c r="T23" s="20">
+        <v>1</v>
+      </c>
+      <c r="U23" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33949,8 +33974,8 @@
       <c r="O24" s="5">
         <v>1</v>
       </c>
-      <c r="P24" s="5" t="s">
-        <v>3</v>
+      <c r="P24" s="5">
+        <v>1</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>3</v>
@@ -33961,10 +33986,10 @@
       <c r="S24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="T24" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34014,22 +34039,20 @@
       <c r="O25" s="5">
         <v>1</v>
       </c>
-      <c r="P25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="5"/>
       <c r="R25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="T25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="U25" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34079,8 +34102,8 @@
       <c r="O26" s="5">
         <v>0</v>
       </c>
-      <c r="P26" s="5" t="s">
-        <v>3</v>
+      <c r="P26" s="5">
+        <v>1</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>3</v>
@@ -34091,10 +34114,10 @@
       <c r="S26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="5" t="s">
+      <c r="T26" s="20">
+        <v>1</v>
+      </c>
+      <c r="U26" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34144,8 +34167,8 @@
       <c r="O27" s="5">
         <v>0</v>
       </c>
-      <c r="P27" s="5" t="s">
-        <v>3</v>
+      <c r="P27" s="5">
+        <v>1</v>
       </c>
       <c r="Q27" s="5" t="s">
         <v>3</v>
@@ -34156,10 +34179,10 @@
       <c r="S27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="5" t="s">
+      <c r="T27" s="20">
+        <v>5</v>
+      </c>
+      <c r="U27" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34209,11 +34232,11 @@
       <c r="O28" s="5">
         <v>0</v>
       </c>
-      <c r="P28" s="5" t="s">
-        <v>3</v>
+      <c r="P28" s="5">
+        <v>0</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>3</v>
@@ -34221,10 +34244,10 @@
       <c r="S28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U28" s="5" t="s">
+      <c r="T28" s="20">
+        <v>6</v>
+      </c>
+      <c r="U28" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34274,8 +34297,8 @@
       <c r="O29" s="5">
         <v>1</v>
       </c>
-      <c r="P29" s="5" t="s">
-        <v>3</v>
+      <c r="P29" s="5">
+        <v>1</v>
       </c>
       <c r="Q29" s="5" t="s">
         <v>3</v>
@@ -34286,10 +34309,10 @@
       <c r="S29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="T29" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="U29" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34337,8 +34360,8 @@
       <c r="O30" s="5">
         <v>1</v>
       </c>
-      <c r="P30" s="5" t="s">
-        <v>3</v>
+      <c r="P30" s="5">
+        <v>1</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>3</v>
@@ -34349,10 +34372,10 @@
       <c r="S30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T30" s="5" t="s">
+      <c r="T30" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U30" s="5" t="s">
+      <c r="U30" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34402,22 +34425,20 @@
       <c r="O31" s="5">
         <v>0</v>
       </c>
-      <c r="P31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5"/>
       <c r="R31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U31" s="5" t="s">
+      <c r="T31" s="20">
+        <v>1</v>
+      </c>
+      <c r="U31" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34467,8 +34488,8 @@
       <c r="O32" s="5">
         <v>1</v>
       </c>
-      <c r="P32" s="5" t="s">
-        <v>3</v>
+      <c r="P32" s="5">
+        <v>0</v>
       </c>
       <c r="Q32" s="5" t="s">
         <v>3</v>
@@ -34479,10 +34500,10 @@
       <c r="S32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="5" t="s">
+      <c r="T32" s="20">
+        <v>1</v>
+      </c>
+      <c r="U32" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34532,11 +34553,11 @@
       <c r="O33" s="5">
         <v>0</v>
       </c>
-      <c r="P33" s="5" t="s">
-        <v>3</v>
+      <c r="P33" s="5">
+        <v>0</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>3</v>
@@ -34544,10 +34565,10 @@
       <c r="S33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="5" t="s">
+      <c r="T33" s="20">
+        <v>4</v>
+      </c>
+      <c r="U33" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34597,8 +34618,8 @@
       <c r="O34" s="5">
         <v>0</v>
       </c>
-      <c r="P34" s="5" t="s">
-        <v>3</v>
+      <c r="P34" s="5">
+        <v>1</v>
       </c>
       <c r="Q34" s="5" t="s">
         <v>3</v>
@@ -34609,10 +34630,10 @@
       <c r="S34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U34" s="5" t="s">
+      <c r="T34" s="20">
+        <v>2</v>
+      </c>
+      <c r="U34" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34662,8 +34683,8 @@
       <c r="O35" s="5">
         <v>1</v>
       </c>
-      <c r="P35" s="5" t="s">
-        <v>3</v>
+      <c r="P35" s="5">
+        <v>1</v>
       </c>
       <c r="Q35" s="5" t="s">
         <v>3</v>
@@ -34674,10 +34695,10 @@
       <c r="S35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T35" s="5" t="s">
+      <c r="T35" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U35" s="5" t="s">
+      <c r="U35" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34727,8 +34748,8 @@
       <c r="O36" s="5">
         <v>1</v>
       </c>
-      <c r="P36" s="5" t="s">
-        <v>3</v>
+      <c r="P36" s="5">
+        <v>1</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>3</v>
@@ -34739,10 +34760,10 @@
       <c r="S36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U36" s="5" t="s">
+      <c r="T36" s="20">
+        <v>2</v>
+      </c>
+      <c r="U36" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34792,8 +34813,8 @@
       <c r="O37" s="5">
         <v>1</v>
       </c>
-      <c r="P37" s="5" t="s">
-        <v>3</v>
+      <c r="P37" s="5">
+        <v>1</v>
       </c>
       <c r="Q37" s="5" t="s">
         <v>3</v>
@@ -34804,10 +34825,10 @@
       <c r="S37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T37" s="5" t="s">
+      <c r="T37" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U37" s="5" t="s">
+      <c r="U37" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34857,11 +34878,11 @@
       <c r="O38" s="5">
         <v>0</v>
       </c>
-      <c r="P38" s="5" t="s">
-        <v>3</v>
+      <c r="P38" s="5">
+        <v>1</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>3</v>
@@ -34869,10 +34890,10 @@
       <c r="S38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="5" t="s">
+      <c r="T38" s="20">
+        <v>2</v>
+      </c>
+      <c r="U38" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34922,8 +34943,8 @@
       <c r="O39" s="5">
         <v>0</v>
       </c>
-      <c r="P39" s="5" t="s">
-        <v>3</v>
+      <c r="P39" s="5">
+        <v>0</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>3</v>
@@ -34934,10 +34955,10 @@
       <c r="S39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U39" s="5" t="s">
+      <c r="T39" s="20">
+        <v>6</v>
+      </c>
+      <c r="U39" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34987,8 +35008,8 @@
       <c r="O40" s="5">
         <v>0</v>
       </c>
-      <c r="P40" s="5" t="s">
-        <v>3</v>
+      <c r="P40" s="5">
+        <v>1</v>
       </c>
       <c r="Q40" s="5" t="s">
         <v>3</v>
@@ -34999,10 +35020,10 @@
       <c r="S40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U40" s="5" t="s">
+      <c r="T40" s="20">
+        <v>5</v>
+      </c>
+      <c r="U40" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35052,8 +35073,8 @@
       <c r="O41" s="5">
         <v>1</v>
       </c>
-      <c r="P41" s="5" t="s">
-        <v>3</v>
+      <c r="P41" s="5">
+        <v>1</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>3</v>
@@ -35064,10 +35085,10 @@
       <c r="S41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T41" s="5" t="s">
+      <c r="T41" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U41" s="5" t="s">
+      <c r="U41" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35117,8 +35138,8 @@
       <c r="O42" s="5">
         <v>1</v>
       </c>
-      <c r="P42" s="5" t="s">
-        <v>3</v>
+      <c r="P42" s="5">
+        <v>0</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>3</v>
@@ -35129,10 +35150,10 @@
       <c r="S42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U42" s="5" t="s">
+      <c r="T42" s="20">
+        <v>1</v>
+      </c>
+      <c r="U42" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35182,8 +35203,8 @@
       <c r="O43" s="5">
         <v>1</v>
       </c>
-      <c r="P43" s="5" t="s">
-        <v>3</v>
+      <c r="P43" s="5">
+        <v>1</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>3</v>
@@ -35194,10 +35215,10 @@
       <c r="S43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="5" t="s">
+      <c r="T43" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="5" t="s">
+      <c r="U43" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35247,8 +35268,8 @@
       <c r="O44" s="5">
         <v>0</v>
       </c>
-      <c r="P44" s="5" t="s">
-        <v>3</v>
+      <c r="P44" s="5">
+        <v>1</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>3</v>
@@ -35259,10 +35280,10 @@
       <c r="S44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U44" s="5" t="s">
+      <c r="T44" s="20">
+        <v>2</v>
+      </c>
+      <c r="U44" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35312,8 +35333,8 @@
       <c r="O45" s="5">
         <v>0</v>
       </c>
-      <c r="P45" s="5" t="s">
-        <v>3</v>
+      <c r="P45" s="5">
+        <v>1</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>3</v>
@@ -35324,10 +35345,10 @@
       <c r="S45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U45" s="5" t="s">
+      <c r="T45" s="20">
+        <v>5</v>
+      </c>
+      <c r="U45" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35377,8 +35398,8 @@
       <c r="O46" s="5">
         <v>1</v>
       </c>
-      <c r="P46" s="5" t="s">
-        <v>3</v>
+      <c r="P46" s="5">
+        <v>1</v>
       </c>
       <c r="Q46" s="5" t="s">
         <v>3</v>
@@ -35389,10 +35410,10 @@
       <c r="S46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T46" s="5" t="s">
+      <c r="T46" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U46" s="5" t="s">
+      <c r="U46" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35442,14 +35463,16 @@
       <c r="O47" s="5">
         <v>0</v>
       </c>
-      <c r="P47" s="5" t="s">
-        <v>3</v>
+      <c r="P47" s="5">
+        <v>1</v>
       </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
+      <c r="T47" s="20">
+        <v>7</v>
+      </c>
+      <c r="U47" s="22"/>
     </row>
     <row r="48" spans="1:21" ht="17.25" thickBot="1">
       <c r="A48" s="6">
@@ -35497,8 +35520,8 @@
       <c r="O48" s="5">
         <v>1</v>
       </c>
-      <c r="P48" s="5" t="s">
-        <v>3</v>
+      <c r="P48" s="5">
+        <v>1</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>3</v>
@@ -35509,10 +35532,10 @@
       <c r="S48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="5" t="s">
+      <c r="T48" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="5" t="s">
+      <c r="U48" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35562,8 +35585,8 @@
       <c r="O49" s="5">
         <v>1</v>
       </c>
-      <c r="P49" s="5" t="s">
-        <v>3</v>
+      <c r="P49" s="5">
+        <v>1</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>3</v>
@@ -35574,10 +35597,10 @@
       <c r="S49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="5" t="s">
+      <c r="T49" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="5" t="s">
+      <c r="U49" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35627,8 +35650,8 @@
       <c r="O50" s="5">
         <v>0</v>
       </c>
-      <c r="P50" s="5" t="s">
-        <v>3</v>
+      <c r="P50" s="5">
+        <v>1</v>
       </c>
       <c r="Q50" s="5" t="s">
         <v>3</v>
@@ -35639,10 +35662,10 @@
       <c r="S50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U50" s="5" t="s">
+      <c r="T50" s="20">
+        <v>1</v>
+      </c>
+      <c r="U50" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35692,8 +35715,8 @@
       <c r="O51" s="5">
         <v>0</v>
       </c>
-      <c r="P51" s="5" t="s">
-        <v>3</v>
+      <c r="P51" s="5">
+        <v>1</v>
       </c>
       <c r="Q51" s="5" t="s">
         <v>3</v>
@@ -35704,10 +35727,10 @@
       <c r="S51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U51" s="5" t="s">
+      <c r="T51" s="20">
+        <v>1</v>
+      </c>
+      <c r="U51" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35757,8 +35780,8 @@
       <c r="O52" s="5">
         <v>1</v>
       </c>
-      <c r="P52" s="5" t="s">
-        <v>3</v>
+      <c r="P52" s="5">
+        <v>1</v>
       </c>
       <c r="Q52" s="5" t="s">
         <v>3</v>
@@ -35769,10 +35792,10 @@
       <c r="S52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U52" s="5" t="s">
+      <c r="T52" s="20">
+        <v>2</v>
+      </c>
+      <c r="U52" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35822,8 +35845,8 @@
       <c r="O53" s="5">
         <v>0</v>
       </c>
-      <c r="P53" s="5" t="s">
-        <v>3</v>
+      <c r="P53" s="5">
+        <v>1</v>
       </c>
       <c r="Q53" s="5" t="s">
         <v>3</v>
@@ -35834,10 +35857,10 @@
       <c r="S53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U53" s="5" t="s">
+      <c r="T53" s="20">
+        <v>6</v>
+      </c>
+      <c r="U53" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35887,8 +35910,8 @@
       <c r="O54" s="5">
         <v>0</v>
       </c>
-      <c r="P54" s="5" t="s">
-        <v>3</v>
+      <c r="P54" s="5">
+        <v>1</v>
       </c>
       <c r="Q54" s="5" t="s">
         <v>3</v>
@@ -35899,10 +35922,10 @@
       <c r="S54" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U54" s="5" t="s">
+      <c r="T54" s="20">
+        <v>8</v>
+      </c>
+      <c r="U54" s="22" t="s">
         <v>3</v>
       </c>
     </row>
